--- a/image/examplescenario.xlsx
+++ b/image/examplescenario.xlsx
@@ -1267,45 +1267,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.5625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.26953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.4609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.0078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="50.734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.5390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="51.49609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/examplescenario.xlsx
+++ b/image/examplescenario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="360">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -384,10 +384,6 @@
   </si>
   <si>
     <t>ExampleScenario.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the example scenario</t>
@@ -1267,45 +1263,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.5625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.4609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.5390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.49609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.0078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="50.734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2675,16 +2671,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2749,10 +2745,10 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2763,7 +2759,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2786,19 +2782,19 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2847,7 +2843,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2856,7 +2852,7 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
@@ -2876,7 +2872,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2902,13 +2898,13 @@
         <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2934,49 +2930,49 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2987,7 +2983,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3010,19 +3006,19 @@
         <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3071,7 +3067,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3086,10 +3082,10 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -3100,11 +3096,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3123,16 +3119,16 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3182,7 +3178,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3197,10 +3193,10 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3211,7 +3207,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3234,19 +3230,19 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3295,7 +3291,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3310,10 +3306,10 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3324,7 +3320,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3347,16 +3343,16 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3406,7 +3402,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3421,7 +3417,7 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -3435,7 +3431,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3458,19 +3454,19 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3519,7 +3515,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3534,7 +3530,7 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>40</v>
@@ -3548,7 +3544,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3571,16 +3567,16 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3606,14 +3602,14 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3630,7 +3626,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3645,7 +3641,7 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>40</v>
@@ -3659,11 +3655,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3682,19 +3678,19 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3743,7 +3739,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3758,7 +3754,7 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
@@ -3772,7 +3768,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3795,16 +3791,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3854,7 +3850,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3869,10 +3865,10 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>117</v>
@@ -3883,7 +3879,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3906,13 +3902,13 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3963,7 +3959,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3975,7 +3971,7 @@
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>40</v>
@@ -3992,7 +3988,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4015,13 +4011,13 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4072,36 +4068,36 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4130,7 +4126,7 @@
         <v>94</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>96</v>
@@ -4183,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4207,16 +4203,16 @@
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4238,10 +4234,10 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>96</v>
@@ -4296,7 +4292,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4325,7 +4321,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4348,16 +4344,16 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4407,7 +4403,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>48</v>
@@ -4436,7 +4432,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4462,10 +4458,10 @@
         <v>67</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4492,14 +4488,14 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4516,7 +4512,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>48</v>
@@ -4545,7 +4541,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4568,16 +4564,16 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4627,7 +4623,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4656,7 +4652,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4679,16 +4675,16 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4738,7 +4734,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4767,7 +4763,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4790,13 +4786,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4847,7 +4843,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4859,7 +4855,7 @@
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>40</v>
@@ -4876,7 +4872,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4899,13 +4895,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4956,36 +4952,36 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5014,7 +5010,7 @@
         <v>94</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>96</v>
@@ -5067,7 +5063,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5091,16 +5087,16 @@
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5122,10 +5118,10 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>96</v>
@@ -5180,7 +5176,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5209,7 +5205,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5232,13 +5228,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5289,7 +5285,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>48</v>
@@ -5318,7 +5314,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5344,10 +5340,10 @@
         <v>67</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5374,14 +5370,14 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5398,7 +5394,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>48</v>
@@ -5427,7 +5423,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5450,13 +5446,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5507,7 +5503,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5536,7 +5532,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5559,13 +5555,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5616,7 +5612,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5645,7 +5641,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5668,13 +5664,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5725,7 +5721,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5737,7 +5733,7 @@
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>40</v>
@@ -5754,7 +5750,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5777,13 +5773,13 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5834,36 +5830,36 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5892,7 +5888,7 @@
         <v>94</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>96</v>
@@ -5945,7 +5941,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5969,16 +5965,16 @@
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6000,10 +5996,10 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>96</v>
@@ -6058,7 +6054,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6087,7 +6083,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6110,13 +6106,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6167,7 +6163,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>48</v>
@@ -6196,7 +6192,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6219,13 +6215,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6276,7 +6272,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>48</v>
@@ -6305,7 +6301,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6328,13 +6324,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6385,7 +6381,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6397,7 +6393,7 @@
         <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>40</v>
@@ -6414,7 +6410,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6437,13 +6433,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6494,36 +6490,36 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6552,7 +6548,7 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>96</v>
@@ -6605,7 +6601,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6629,16 +6625,16 @@
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6660,10 +6656,10 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>96</v>
@@ -6718,7 +6714,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6747,7 +6743,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6770,13 +6766,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6827,7 +6823,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>48</v>
@@ -6856,7 +6852,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6879,13 +6875,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6936,7 +6932,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6965,7 +6961,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6988,13 +6984,13 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7045,7 +7041,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7057,7 +7053,7 @@
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>40</v>
@@ -7074,7 +7070,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7097,13 +7093,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7154,36 +7150,36 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7212,7 +7208,7 @@
         <v>94</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>96</v>
@@ -7265,7 +7261,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7289,16 +7285,16 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7320,10 +7316,10 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>96</v>
@@ -7378,7 +7374,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7407,7 +7403,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7430,13 +7426,13 @@
         <v>49</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7487,7 +7483,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>48</v>
@@ -7516,7 +7512,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7539,13 +7535,13 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7596,7 +7592,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7625,7 +7621,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7648,13 +7644,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7705,7 +7701,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7734,7 +7730,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7757,13 +7753,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7814,7 +7810,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7843,7 +7839,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7866,13 +7862,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7923,7 +7919,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7935,7 +7931,7 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
@@ -7952,7 +7948,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7975,13 +7971,13 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8032,36 +8028,36 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8090,7 +8086,7 @@
         <v>94</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>96</v>
@@ -8143,7 +8139,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8167,16 +8163,16 @@
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8198,10 +8194,10 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>96</v>
@@ -8256,7 +8252,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8285,7 +8281,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8311,10 +8307,10 @@
         <v>40</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8365,7 +8361,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8394,7 +8390,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8417,13 +8413,13 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8474,7 +8470,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8503,7 +8499,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8526,13 +8522,13 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8583,7 +8579,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8595,7 +8591,7 @@
         <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>40</v>
@@ -8612,7 +8608,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8635,13 +8631,13 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8692,36 +8688,36 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8750,7 +8746,7 @@
         <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>96</v>
@@ -8803,7 +8799,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8827,16 +8823,16 @@
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8858,10 +8854,10 @@
         <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>96</v>
@@ -8916,7 +8912,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -8945,7 +8941,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8968,13 +8964,13 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9025,7 +9021,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>48</v>
@@ -9054,7 +9050,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9077,13 +9073,13 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9134,7 +9130,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9163,7 +9159,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9186,13 +9182,13 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9243,7 +9239,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9272,7 +9268,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9295,13 +9291,13 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9352,7 +9348,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9381,7 +9377,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9404,13 +9400,13 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9461,7 +9457,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9490,7 +9486,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9513,13 +9509,13 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9570,7 +9566,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9599,7 +9595,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9622,13 +9618,13 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9679,7 +9675,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9708,7 +9704,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9731,13 +9727,13 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9788,7 +9784,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9817,7 +9813,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9843,10 +9839,10 @@
         <v>40</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9897,7 +9893,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -9926,7 +9922,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9952,10 +9948,10 @@
         <v>40</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10006,7 +10002,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10035,7 +10031,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10058,13 +10054,13 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10115,7 +10111,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10127,7 +10123,7 @@
         <v>40</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>40</v>
@@ -10144,7 +10140,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10167,13 +10163,13 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10224,36 +10220,36 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10282,7 +10278,7 @@
         <v>94</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>96</v>
@@ -10335,7 +10331,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10359,16 +10355,16 @@
         <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10390,10 +10386,10 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>96</v>
@@ -10448,7 +10444,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10477,7 +10473,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10500,13 +10496,13 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10557,7 +10553,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>48</v>
@@ -10586,7 +10582,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10609,13 +10605,13 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10666,7 +10662,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10695,7 +10691,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10721,10 +10717,10 @@
         <v>40</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10775,7 +10771,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -10804,7 +10800,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10827,13 +10823,13 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10884,7 +10880,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
